--- a/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
+++ b/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studisys\OneDrive\Documents\GitHub\Lorann-Java-Project----Exia-CESI-A1\Deliverables\Project_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208B40DD-4699-4571-82DF-26D8D51D5178}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D423F2-6878-4421-9761-DC2E54807A8C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{04DB42CA-C582-430A-B24B-2DA42F1F144B}"/>
   </bookViews>
@@ -285,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,22 +367,35 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,20 +410,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -715,23 +731,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -754,6 +761,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -781,114 +818,99 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1182,6 +1204,108 @@
           <cell r="E33" t="str">
             <v>D</v>
           </cell>
+        </row>
+        <row r="34">
+          <cell r="D34"/>
+          <cell r="E34"/>
+        </row>
+        <row r="35">
+          <cell r="D35"/>
+          <cell r="E35"/>
+        </row>
+        <row r="36">
+          <cell r="D36"/>
+          <cell r="E36"/>
+        </row>
+        <row r="37">
+          <cell r="D37"/>
+          <cell r="E37"/>
+        </row>
+        <row r="38">
+          <cell r="D38"/>
+          <cell r="E38"/>
+        </row>
+        <row r="39">
+          <cell r="D39"/>
+          <cell r="E39"/>
+        </row>
+        <row r="40">
+          <cell r="E40"/>
+        </row>
+        <row r="41">
+          <cell r="E41"/>
+        </row>
+        <row r="42">
+          <cell r="E42"/>
+        </row>
+        <row r="43">
+          <cell r="E43"/>
+        </row>
+        <row r="44">
+          <cell r="E44"/>
+        </row>
+        <row r="45">
+          <cell r="E45"/>
+        </row>
+        <row r="46">
+          <cell r="E46"/>
+        </row>
+        <row r="47">
+          <cell r="E47"/>
+        </row>
+        <row r="48">
+          <cell r="E48"/>
+        </row>
+        <row r="49">
+          <cell r="E49"/>
+        </row>
+        <row r="50">
+          <cell r="E50"/>
+        </row>
+        <row r="51">
+          <cell r="E51"/>
+        </row>
+        <row r="52">
+          <cell r="E52"/>
+        </row>
+        <row r="53">
+          <cell r="E53"/>
+        </row>
+        <row r="54">
+          <cell r="E54"/>
+        </row>
+        <row r="55">
+          <cell r="E55"/>
+        </row>
+        <row r="56">
+          <cell r="E56"/>
+        </row>
+        <row r="57">
+          <cell r="E57"/>
+        </row>
+        <row r="58">
+          <cell r="E58"/>
+        </row>
+        <row r="59">
+          <cell r="E59"/>
+        </row>
+        <row r="60">
+          <cell r="E60"/>
+        </row>
+        <row r="61">
+          <cell r="E61"/>
+        </row>
+        <row r="62">
+          <cell r="E62"/>
+        </row>
+        <row r="63">
+          <cell r="E63"/>
+        </row>
+        <row r="64">
+          <cell r="E64"/>
+        </row>
+        <row r="65">
+          <cell r="E65"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -1488,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84878C4D-6100-4F50-9094-AD16EEDA0C55}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,589 +1624,589 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3" t="str">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17" t="str">
         <f>VLOOKUP(CONCATENATE(B3,H3,N3),[1]Calcul!D2:E65,2)</f>
         <v>D</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="str">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="str">
         <f>IF(SUM(D4:D19)&gt;SUM(C4:C19)*[1]Calcul!$B$2,"A",IF(SUM(D4:D19)&gt;=SUM(C4:C19)*[1]Calcul!$B$3,"B",IF(SUM(D4:D19)&gt;=SUM(C4:C19)*[1]Calcul!$B$4,"C","D")))</f>
         <v>D</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="10">
         <f>SUM(E4:E19)</f>
         <v>25</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="44" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45" t="str">
+      <c r="H3" s="12" t="str">
         <f>IF(SUM(J4:J13)&gt;SUM(I4:I13)*[1]Calcul!$B$2,"A",IF(SUM(J4:J13)&gt;=SUM(I4:I13)*[1]Calcul!$B$3,"B",IF(SUM(J4:J13)&gt;=SUM(I4:I13)*[1]Calcul!$B$4,"C","D")))</f>
         <v>D</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="13">
         <f>SUM(K4:K13)</f>
         <v>17</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="44" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="45" t="str">
+      <c r="N3" s="12" t="str">
         <f>IF(SUM(P4:P13)&lt;P3,"D","A")</f>
         <v>D</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="46">
+      <c r="P3" s="13">
         <f>SUM(Q4:Q13)</f>
         <v>10</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="29">
         <v>5</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="30">
         <v>2</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="31">
         <f t="shared" ref="D4:D19" si="0">(B4/E4)*C4</f>
         <v>2</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="30">
         <v>5</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="39">
-        <v>0</v>
-      </c>
-      <c r="I4" s="40">
+      <c r="H4" s="47">
+        <v>0</v>
+      </c>
+      <c r="I4" s="48">
         <v>3</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="48">
         <f>(H4/K4)*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="49">
         <v>2</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="22" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="23">
-        <v>1</v>
-      </c>
-      <c r="O4" s="24">
-        <v>1</v>
-      </c>
-      <c r="P4" s="24">
+      <c r="N4" s="36">
+        <v>1</v>
+      </c>
+      <c r="O4" s="31">
+        <v>1</v>
+      </c>
+      <c r="P4" s="31">
         <f>(N4/Q4)*O4</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="35">
-        <v>0</v>
-      </c>
-      <c r="C5" s="36">
+      <c r="B5" s="44">
+        <v>0</v>
+      </c>
+      <c r="C5" s="45">
         <v>2</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="45">
         <v>4</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="35">
-        <v>0</v>
-      </c>
-      <c r="I5" s="36">
+      <c r="H5" s="44">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
         <v>3</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="45">
         <f t="shared" ref="J5:J13" si="1">(H5/K5)*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="37">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="34" t="s">
+      <c r="K5" s="50">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="35">
-        <v>0</v>
-      </c>
-      <c r="O5" s="36">
-        <v>1</v>
-      </c>
-      <c r="P5" s="36">
+      <c r="N5" s="44">
+        <v>0</v>
+      </c>
+      <c r="O5" s="45">
+        <v>1</v>
+      </c>
+      <c r="P5" s="45">
         <f t="shared" ref="P5:P13" si="2">(N5/Q5)*O5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="35">
-        <v>0</v>
-      </c>
-      <c r="C6" s="36">
+      <c r="B6" s="44">
+        <v>0</v>
+      </c>
+      <c r="C6" s="45">
         <v>3</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="36">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="34" t="s">
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="35">
-        <v>0</v>
-      </c>
-      <c r="I6" s="36">
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45">
         <v>3</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="37">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="34" t="s">
+      <c r="K6" s="50">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="35">
-        <v>0</v>
-      </c>
-      <c r="O6" s="36">
-        <v>1</v>
-      </c>
-      <c r="P6" s="36">
+      <c r="N6" s="44">
+        <v>0</v>
+      </c>
+      <c r="O6" s="45">
+        <v>1</v>
+      </c>
+      <c r="P6" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="35">
-        <v>0</v>
-      </c>
-      <c r="C7" s="36">
+      <c r="B7" s="44">
+        <v>0</v>
+      </c>
+      <c r="C7" s="45">
         <v>3</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="36">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="34" t="s">
+      <c r="E7" s="45">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="35">
-        <v>0</v>
-      </c>
-      <c r="I7" s="36">
+      <c r="H7" s="44">
+        <v>0</v>
+      </c>
+      <c r="I7" s="45">
         <v>2</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="37">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="34" t="s">
+      <c r="K7" s="50">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="35">
-        <v>0</v>
-      </c>
-      <c r="O7" s="36">
-        <v>1</v>
-      </c>
-      <c r="P7" s="36">
+      <c r="N7" s="44">
+        <v>0</v>
+      </c>
+      <c r="O7" s="45">
+        <v>1</v>
+      </c>
+      <c r="P7" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="35">
-        <v>0</v>
-      </c>
-      <c r="C8" s="36">
+      <c r="B8" s="44">
+        <v>0</v>
+      </c>
+      <c r="C8" s="45">
         <v>3</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="36">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="34" t="s">
+      <c r="E8" s="45">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="35">
-        <v>0</v>
-      </c>
-      <c r="I8" s="36">
+      <c r="H8" s="44">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
         <v>2</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="50">
         <v>2</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="34" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="35">
-        <v>0</v>
-      </c>
-      <c r="O8" s="36">
-        <v>1</v>
-      </c>
-      <c r="P8" s="36">
+      <c r="N8" s="44">
+        <v>0</v>
+      </c>
+      <c r="O8" s="45">
+        <v>1</v>
+      </c>
+      <c r="P8" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="35">
-        <v>0</v>
-      </c>
-      <c r="C9" s="36">
+      <c r="B9" s="44">
+        <v>0</v>
+      </c>
+      <c r="C9" s="45">
         <v>2</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="36">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="34" t="s">
+      <c r="E9" s="45">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="35">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="H9" s="44">
+        <v>0</v>
+      </c>
+      <c r="I9" s="45">
         <v>2</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="50">
         <v>2</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="34" t="s">
+      <c r="L9" s="6"/>
+      <c r="M9" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="35">
-        <v>0</v>
-      </c>
-      <c r="O9" s="36">
-        <v>1</v>
-      </c>
-      <c r="P9" s="36">
+      <c r="N9" s="44">
+        <v>0</v>
+      </c>
+      <c r="O9" s="45">
+        <v>1</v>
+      </c>
+      <c r="P9" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="35">
-        <v>0</v>
-      </c>
-      <c r="C10" s="36">
+      <c r="B10" s="44">
+        <v>0</v>
+      </c>
+      <c r="C10" s="45">
         <v>3</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="36">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="34" t="s">
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="35">
-        <v>0</v>
-      </c>
-      <c r="I10" s="36">
+      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+      <c r="I10" s="45">
         <v>2</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="50">
         <v>2</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="34" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="35">
-        <v>0</v>
-      </c>
-      <c r="O10" s="36">
-        <v>1</v>
-      </c>
-      <c r="P10" s="36">
+      <c r="N10" s="44">
+        <v>0</v>
+      </c>
+      <c r="O10" s="45">
+        <v>1</v>
+      </c>
+      <c r="P10" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="35">
-        <v>0</v>
-      </c>
-      <c r="C11" s="36">
+      <c r="B11" s="44">
+        <v>0</v>
+      </c>
+      <c r="C11" s="45">
         <v>3</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="36">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="34" t="s">
+      <c r="E11" s="45">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="35">
-        <v>0</v>
-      </c>
-      <c r="I11" s="36">
+      <c r="H11" s="44">
+        <v>0</v>
+      </c>
+      <c r="I11" s="45">
         <v>2</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="37">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="34" t="s">
+      <c r="K11" s="50">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="35">
-        <v>0</v>
-      </c>
-      <c r="O11" s="36">
-        <v>1</v>
-      </c>
-      <c r="P11" s="36">
+      <c r="N11" s="44">
+        <v>0</v>
+      </c>
+      <c r="O11" s="45">
+        <v>1</v>
+      </c>
+      <c r="P11" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="35">
-        <v>0</v>
-      </c>
-      <c r="C12" s="36">
+      <c r="B12" s="44">
+        <v>0</v>
+      </c>
+      <c r="C12" s="45">
         <v>3</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="36">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="34" t="s">
+      <c r="E12" s="45">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="35">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
+      <c r="H12" s="44">
+        <v>0</v>
+      </c>
+      <c r="I12" s="45">
         <v>2</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="50">
         <v>2</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="30" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="31">
-        <v>1</v>
-      </c>
-      <c r="O12" s="32">
-        <v>1</v>
-      </c>
-      <c r="P12" s="32">
+      <c r="N12" s="33">
+        <v>1</v>
+      </c>
+      <c r="O12" s="34">
+        <v>1</v>
+      </c>
+      <c r="P12" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="35">
-        <v>0</v>
-      </c>
-      <c r="C13" s="36">
-        <v>1</v>
-      </c>
-      <c r="D13" s="36">
+      <c r="B13" s="44">
+        <v>0</v>
+      </c>
+      <c r="C13" s="45">
+        <v>1</v>
+      </c>
+      <c r="D13" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="36">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="45">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="51" t="s">
         <v>34</v>
       </c>
@@ -2099,243 +2223,243 @@
       <c r="K13" s="54">
         <v>3</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="26" t="s">
+      <c r="L13" s="6"/>
+      <c r="M13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="27">
-        <v>1</v>
-      </c>
-      <c r="O13" s="28">
-        <v>1</v>
-      </c>
-      <c r="P13" s="28">
+      <c r="N13" s="39">
+        <v>1</v>
+      </c>
+      <c r="O13" s="40">
+        <v>1</v>
+      </c>
+      <c r="P13" s="40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="35">
-        <v>0</v>
-      </c>
-      <c r="C14" s="36">
+      <c r="B14" s="44">
+        <v>0</v>
+      </c>
+      <c r="C14" s="45">
         <v>3</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="36">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="E14" s="45">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="31">
-        <v>1</v>
-      </c>
-      <c r="C15" s="32">
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34">
         <v>3</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E15" s="32">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
+      <c r="E15" s="34">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="35">
-        <v>0</v>
-      </c>
-      <c r="C16" s="36">
+      <c r="B16" s="44">
+        <v>0</v>
+      </c>
+      <c r="C16" s="45">
         <v>3</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="36">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13" t="s">
+      <c r="E16" s="45">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21"/>
     </row>
     <row r="17" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="35">
-        <v>0</v>
-      </c>
-      <c r="C17" s="36">
-        <v>1</v>
-      </c>
-      <c r="D17" s="36">
+      <c r="B17" s="44">
+        <v>0</v>
+      </c>
+      <c r="C17" s="45">
+        <v>1</v>
+      </c>
+      <c r="D17" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="36">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="18"/>
+      <c r="E17" s="45">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="35">
-        <v>0</v>
-      </c>
-      <c r="C18" s="36">
-        <v>1</v>
-      </c>
-      <c r="D18" s="36">
+      <c r="B18" s="44">
+        <v>0</v>
+      </c>
+      <c r="C18" s="45">
+        <v>1</v>
+      </c>
+      <c r="D18" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="36">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="18"/>
+      <c r="E18" s="45">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="39">
         <v>3</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="40">
         <v>3</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="40">
         <v>3</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="18"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="7"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
+++ b/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studisys\OneDrive\Documents\GitHub\Lorann-Java-Project----Exia-CESI-A1\Deliverables\Project_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D423F2-6878-4421-9761-DC2E54807A8C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846499DE-7C13-41D3-8A66-62E54DF57A87}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{04DB42CA-C582-430A-B24B-2DA42F1F144B}"/>
   </bookViews>
@@ -395,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +429,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -730,14 +735,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -867,6 +888,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -877,38 +901,33 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84878C4D-6100-4F50-9094-AD16EEDA0C55}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1672,7 +1691,7 @@
       </c>
       <c r="B3" s="10" t="str">
         <f>IF(SUM(D4:D19)&gt;SUM(C4:C19)*[1]Calcul!$B$2,"A",IF(SUM(D4:D19)&gt;=SUM(C4:C19)*[1]Calcul!$B$3,"B",IF(SUM(D4:D19)&gt;=SUM(C4:C19)*[1]Calcul!$B$4,"C","D")))</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>2</v>
@@ -1690,7 +1709,7 @@
       </c>
       <c r="H3" s="12" t="str">
         <f>IF(SUM(J4:J13)&gt;SUM(I4:I13)*[1]Calcul!$B$2,"A",IF(SUM(J4:J13)&gt;=SUM(I4:I13)*[1]Calcul!$B$3,"B",IF(SUM(J4:J13)&gt;=SUM(I4:I13)*[1]Calcul!$B$4,"C","D")))</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>2</v>
@@ -1721,7 +1740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
@@ -1739,20 +1758,20 @@
         <v>5</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="47">
-        <v>0</v>
-      </c>
-      <c r="I4" s="48">
+      <c r="H4" s="49">
+        <v>2</v>
+      </c>
+      <c r="I4" s="43">
         <v>3</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="43">
         <f>(H4/K4)*I4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="49">
+        <v>3</v>
+      </c>
+      <c r="K4" s="43">
         <v>2</v>
       </c>
       <c r="L4" s="6"/>
@@ -1773,402 +1792,402 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:17" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="44">
-        <v>0</v>
-      </c>
-      <c r="C5" s="45">
+      <c r="B5" s="45">
+        <v>0</v>
+      </c>
+      <c r="C5" s="46">
         <v>2</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="46">
         <v>4</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="44">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
+      <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="I5" s="46">
         <v>3</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="46">
         <f t="shared" ref="J5:J13" si="1">(H5/K5)*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="47">
         <v>1</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="44">
-        <v>0</v>
-      </c>
-      <c r="O5" s="45">
-        <v>1</v>
-      </c>
-      <c r="P5" s="45">
+      <c r="N5" s="49">
+        <v>1</v>
+      </c>
+      <c r="O5" s="43">
+        <v>1</v>
+      </c>
+      <c r="P5" s="43">
         <f t="shared" ref="P5:P13" si="2">(N5/Q5)*O5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:17" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="44">
-        <v>0</v>
-      </c>
-      <c r="C6" s="45">
+      <c r="B6" s="45">
+        <v>0</v>
+      </c>
+      <c r="C6" s="46">
         <v>3</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="46">
         <v>1</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="44">
-        <v>0</v>
-      </c>
-      <c r="I6" s="45">
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="46">
         <v>3</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="47">
         <v>1</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="44">
-        <v>0</v>
-      </c>
-      <c r="O6" s="45">
-        <v>1</v>
-      </c>
-      <c r="P6" s="45">
+      <c r="N6" s="45">
+        <v>0</v>
+      </c>
+      <c r="O6" s="46">
+        <v>1</v>
+      </c>
+      <c r="P6" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="44">
-        <v>0</v>
-      </c>
-      <c r="C7" s="45">
+      <c r="B7" s="45">
+        <v>0</v>
+      </c>
+      <c r="C7" s="46">
         <v>3</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="46">
         <v>1</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="44">
-        <v>0</v>
-      </c>
-      <c r="I7" s="45">
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="46">
         <v>2</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="47">
         <v>1</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="43" t="s">
+      <c r="M7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="44">
-        <v>0</v>
-      </c>
-      <c r="O7" s="45">
-        <v>1</v>
-      </c>
-      <c r="P7" s="45">
+      <c r="N7" s="45">
+        <v>0</v>
+      </c>
+      <c r="O7" s="46">
+        <v>1</v>
+      </c>
+      <c r="P7" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="44">
-        <v>0</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="B8" s="45">
+        <v>0</v>
+      </c>
+      <c r="C8" s="46">
         <v>3</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="46">
         <v>1</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="44">
-        <v>0</v>
-      </c>
-      <c r="I8" s="45">
+      <c r="H8" s="51">
+        <v>1</v>
+      </c>
+      <c r="I8" s="52">
         <v>2</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="50">
+        <v>1</v>
+      </c>
+      <c r="K8" s="53">
         <v>2</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="44">
-        <v>0</v>
-      </c>
-      <c r="O8" s="45">
-        <v>1</v>
-      </c>
-      <c r="P8" s="45">
+      <c r="N8" s="45">
+        <v>0</v>
+      </c>
+      <c r="O8" s="46">
+        <v>1</v>
+      </c>
+      <c r="P8" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="44">
-        <v>0</v>
-      </c>
-      <c r="C9" s="45">
+      <c r="B9" s="45">
+        <v>0</v>
+      </c>
+      <c r="C9" s="46">
         <v>2</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="46">
         <v>1</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="44">
-        <v>0</v>
-      </c>
-      <c r="I9" s="45">
+      <c r="H9" s="51">
+        <v>1</v>
+      </c>
+      <c r="I9" s="52">
         <v>2</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="50">
+        <v>1</v>
+      </c>
+      <c r="K9" s="53">
         <v>2</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="44">
-        <v>0</v>
-      </c>
-      <c r="O9" s="45">
-        <v>1</v>
-      </c>
-      <c r="P9" s="45">
+      <c r="N9" s="45">
+        <v>0</v>
+      </c>
+      <c r="O9" s="46">
+        <v>1</v>
+      </c>
+      <c r="P9" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:17" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="44">
-        <v>0</v>
-      </c>
-      <c r="C10" s="45">
+      <c r="B10" s="45">
+        <v>0</v>
+      </c>
+      <c r="C10" s="46">
         <v>3</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="46">
         <v>1</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="44">
-        <v>0</v>
-      </c>
-      <c r="I10" s="45">
+      <c r="H10" s="51">
+        <v>1</v>
+      </c>
+      <c r="I10" s="52">
         <v>2</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="50">
+        <v>1</v>
+      </c>
+      <c r="K10" s="53">
         <v>2</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="44">
-        <v>0</v>
-      </c>
-      <c r="O10" s="45">
-        <v>1</v>
-      </c>
-      <c r="P10" s="45">
+      <c r="N10" s="45">
+        <v>0</v>
+      </c>
+      <c r="O10" s="46">
+        <v>1</v>
+      </c>
+      <c r="P10" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:17" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="44">
-        <v>0</v>
-      </c>
-      <c r="C11" s="45">
+      <c r="B11" s="45">
+        <v>0</v>
+      </c>
+      <c r="C11" s="46">
         <v>3</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="46">
         <v>1</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="44">
-        <v>0</v>
-      </c>
-      <c r="I11" s="45">
+      <c r="H11" s="49">
+        <v>1</v>
+      </c>
+      <c r="I11" s="43">
         <v>2</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="50">
+        <v>2</v>
+      </c>
+      <c r="K11" s="43">
         <v>1</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="43" t="s">
+      <c r="M11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="44">
-        <v>0</v>
-      </c>
-      <c r="O11" s="45">
-        <v>1</v>
-      </c>
-      <c r="P11" s="45">
+      <c r="N11" s="45">
+        <v>0</v>
+      </c>
+      <c r="O11" s="46">
+        <v>1</v>
+      </c>
+      <c r="P11" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="50">
+      <c r="Q11" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:17" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="44">
-        <v>0</v>
-      </c>
-      <c r="C12" s="45">
+      <c r="B12" s="33">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34">
         <v>3</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="45">
+        <v>3</v>
+      </c>
+      <c r="E12" s="34">
         <v>1</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="44">
-        <v>0</v>
-      </c>
-      <c r="I12" s="45">
+      <c r="H12" s="51">
+        <v>1</v>
+      </c>
+      <c r="I12" s="52">
         <v>2</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="50">
+        <v>1</v>
+      </c>
+      <c r="K12" s="53">
         <v>2</v>
       </c>
       <c r="L12" s="6"/>
@@ -2189,38 +2208,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:17" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="44">
-        <v>0</v>
-      </c>
-      <c r="C13" s="45">
-        <v>1</v>
-      </c>
-      <c r="D13" s="45">
+      <c r="B13" s="45">
+        <v>0</v>
+      </c>
+      <c r="C13" s="46">
+        <v>1</v>
+      </c>
+      <c r="D13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="46">
         <v>1</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="49">
+        <v>3</v>
+      </c>
+      <c r="I13" s="43">
         <v>2</v>
       </c>
-      <c r="I13" s="53">
+      <c r="J13" s="43">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J13" s="53">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K13" s="54">
+      <c r="K13" s="43">
         <v>3</v>
       </c>
       <c r="L13" s="6"/>
@@ -2241,21 +2260,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:17" ht="24.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="44">
-        <v>0</v>
-      </c>
-      <c r="C14" s="45">
+      <c r="B14" s="45">
+        <v>0</v>
+      </c>
+      <c r="C14" s="46">
         <v>3</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="46">
         <v>1</v>
       </c>
       <c r="F14" s="6"/>
@@ -2302,20 +2321,20 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="44">
-        <v>0</v>
-      </c>
-      <c r="C16" s="45">
+      <c r="B16" s="45">
+        <v>0</v>
+      </c>
+      <c r="C16" s="46">
         <v>3</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="46">
         <v>1</v>
       </c>
       <c r="F16" s="4"/>
@@ -2334,20 +2353,20 @@
       <c r="Q16" s="21"/>
     </row>
     <row r="17" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="44">
-        <v>0</v>
-      </c>
-      <c r="C17" s="45">
-        <v>1</v>
-      </c>
-      <c r="D17" s="45">
+      <c r="B17" s="45">
+        <v>0</v>
+      </c>
+      <c r="C17" s="46">
+        <v>1</v>
+      </c>
+      <c r="D17" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="46">
         <v>1</v>
       </c>
       <c r="F17" s="4"/>
@@ -2364,20 +2383,20 @@
       <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="44">
-        <v>0</v>
-      </c>
-      <c r="C18" s="45">
-        <v>1</v>
-      </c>
-      <c r="D18" s="45">
+      <c r="B18" s="45">
+        <v>0</v>
+      </c>
+      <c r="C18" s="46">
+        <v>1</v>
+      </c>
+      <c r="D18" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="46">
         <v>1</v>
       </c>
       <c r="F18" s="4"/>

--- a/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
+++ b/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studisys\OneDrive\Documents\GitHub\Lorann-Java-Project----Exia-CESI-A1\Deliverables\Project_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846499DE-7C13-41D3-8A66-62E54DF57A87}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53691BA-35CC-473C-A211-5BE1D17CAC0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{04DB42CA-C582-430A-B24B-2DA42F1F144B}"/>
   </bookViews>
@@ -758,7 +758,7 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -800,6 +800,91 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,89 +924,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1632,7 +1642,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1643,28 +1653,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17" t="str">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="str">
         <f>VLOOKUP(CONCATENATE(B3,H3,N3),[1]Calcul!D2:E65,2)</f>
-        <v>D</v>
-      </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18"/>
+        <v>C</v>
+      </c>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -1727,7 +1737,7 @@
       </c>
       <c r="N3" s="12" t="str">
         <f>IF(SUM(P4:P13)&lt;P3,"D","A")</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>2</v>
@@ -1741,540 +1751,540 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="16">
         <v>5</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="18">
         <f t="shared" ref="D4:D19" si="0">(B4/E4)*C4</f>
         <v>2</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="17">
         <v>5</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="36">
         <v>2</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="30">
         <v>3</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="30">
         <f>(H4/K4)*I4</f>
         <v>3</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="30">
         <v>2</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="36">
-        <v>1</v>
-      </c>
-      <c r="O4" s="31">
-        <v>1</v>
-      </c>
-      <c r="P4" s="31">
+      <c r="N4" s="23">
+        <v>1</v>
+      </c>
+      <c r="O4" s="18">
+        <v>1</v>
+      </c>
+      <c r="P4" s="18">
         <f>(N4/Q4)*O4</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="38">
         <v>0</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="39">
         <v>2</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="39">
         <v>4</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="32">
         <v>0</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="33">
         <v>3</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="33">
         <f t="shared" ref="J5:J13" si="1">(H5/K5)*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="34">
         <v>1</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="49">
-        <v>1</v>
-      </c>
-      <c r="O5" s="43">
-        <v>1</v>
-      </c>
-      <c r="P5" s="43">
+      <c r="N5" s="55">
+        <v>1</v>
+      </c>
+      <c r="O5" s="56">
+        <v>1</v>
+      </c>
+      <c r="P5" s="56">
         <f t="shared" ref="P5:P13" si="2">(N5/Q5)*O5</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>3</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="32">
         <v>0</v>
       </c>
-      <c r="C6" s="46">
+      <c r="I6" s="33">
         <v>3</v>
       </c>
-      <c r="D6" s="46">
+      <c r="J6" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="34">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="32">
+        <v>1</v>
+      </c>
+      <c r="O6" s="33">
+        <v>1</v>
+      </c>
+      <c r="P6" s="33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0</v>
+      </c>
+      <c r="C7" s="33">
+        <v>3</v>
+      </c>
+      <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="46">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="45">
+      <c r="E7" s="33">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="32">
         <v>0</v>
       </c>
-      <c r="I6" s="46">
-        <v>3</v>
-      </c>
-      <c r="J6" s="46">
+      <c r="I7" s="33">
+        <v>2</v>
+      </c>
+      <c r="J7" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="47">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="45">
+      <c r="K7" s="34">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="32">
+        <v>1</v>
+      </c>
+      <c r="O7" s="33">
+        <v>1</v>
+      </c>
+      <c r="P7" s="33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="32">
         <v>0</v>
       </c>
-      <c r="O6" s="46">
-        <v>1</v>
-      </c>
-      <c r="P6" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="45">
-        <v>0</v>
-      </c>
-      <c r="C7" s="46">
+      <c r="C8" s="33">
         <v>3</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D8" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="46">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="45">
+      <c r="E8" s="33">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="38">
+        <v>1</v>
+      </c>
+      <c r="I8" s="39">
+        <v>2</v>
+      </c>
+      <c r="J8" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="40">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="32">
+        <v>1</v>
+      </c>
+      <c r="O8" s="33">
+        <v>1</v>
+      </c>
+      <c r="P8" s="33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="32">
         <v>0</v>
       </c>
-      <c r="I7" s="46">
+      <c r="C9" s="33">
         <v>2</v>
       </c>
-      <c r="J7" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="47">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="45">
-        <v>0</v>
-      </c>
-      <c r="O7" s="46">
-        <v>1</v>
-      </c>
-      <c r="P7" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="45">
-        <v>0</v>
-      </c>
-      <c r="C8" s="46">
-        <v>3</v>
-      </c>
-      <c r="D8" s="46">
+      <c r="D9" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="46">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="51">
-        <v>1</v>
-      </c>
-      <c r="I8" s="52">
+      <c r="E9" s="33">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="38">
+        <v>1</v>
+      </c>
+      <c r="I9" s="39">
         <v>2</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J9" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K9" s="40">
         <v>2</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="45">
+      <c r="L9" s="6"/>
+      <c r="M9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="32">
+        <v>1</v>
+      </c>
+      <c r="O9" s="33">
+        <v>1</v>
+      </c>
+      <c r="P9" s="33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="32">
         <v>0</v>
       </c>
-      <c r="O8" s="46">
-        <v>1</v>
-      </c>
-      <c r="P8" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="45">
-        <v>0</v>
-      </c>
-      <c r="C9" s="46">
-        <v>2</v>
-      </c>
-      <c r="D9" s="46">
+      <c r="C10" s="33">
+        <v>3</v>
+      </c>
+      <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="46">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="51">
-        <v>1</v>
-      </c>
-      <c r="I9" s="52">
+      <c r="E10" s="33">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="38">
+        <v>1</v>
+      </c>
+      <c r="I10" s="39">
         <v>2</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J10" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K10" s="40">
         <v>2</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="45">
+      <c r="L10" s="6"/>
+      <c r="M10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="32">
+        <v>1</v>
+      </c>
+      <c r="O10" s="33">
+        <v>1</v>
+      </c>
+      <c r="P10" s="33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="32">
         <v>0</v>
       </c>
-      <c r="O9" s="46">
-        <v>1</v>
-      </c>
-      <c r="P9" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="45">
-        <v>0</v>
-      </c>
-      <c r="C10" s="46">
+      <c r="C11" s="33">
         <v>3</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D11" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="46">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="51">
-        <v>1</v>
-      </c>
-      <c r="I10" s="52">
+      <c r="E11" s="33">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="36">
+        <v>1</v>
+      </c>
+      <c r="I11" s="30">
         <v>2</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J11" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="53">
         <v>2</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="45">
+      <c r="K11" s="30">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="32">
+        <v>1</v>
+      </c>
+      <c r="O11" s="33">
+        <v>1</v>
+      </c>
+      <c r="P11" s="33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
+        <v>3</v>
+      </c>
+      <c r="D12" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="38">
+        <v>1</v>
+      </c>
+      <c r="I12" s="39">
+        <v>2</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="40">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="20">
+        <v>1</v>
+      </c>
+      <c r="O12" s="21">
+        <v>1</v>
+      </c>
+      <c r="P12" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="36">
+        <v>3</v>
+      </c>
+      <c r="I13" s="30">
+        <v>2</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="30">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="26">
+        <v>1</v>
+      </c>
+      <c r="O13" s="27">
+        <v>1</v>
+      </c>
+      <c r="P13" s="27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="24.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="32">
         <v>0</v>
       </c>
-      <c r="O10" s="46">
-        <v>1</v>
-      </c>
-      <c r="P10" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="45">
-        <v>0</v>
-      </c>
-      <c r="C11" s="46">
+      <c r="C14" s="33">
         <v>3</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D14" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="46">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="49">
-        <v>1</v>
-      </c>
-      <c r="I11" s="43">
-        <v>2</v>
-      </c>
-      <c r="J11" s="43">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K11" s="43">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="45">
-        <v>0</v>
-      </c>
-      <c r="O11" s="46">
-        <v>1</v>
-      </c>
-      <c r="P11" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="33">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34">
-        <v>3</v>
-      </c>
-      <c r="D12" s="34">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E12" s="34">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="51">
-        <v>1</v>
-      </c>
-      <c r="I12" s="52">
-        <v>2</v>
-      </c>
-      <c r="J12" s="52">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="53">
-        <v>2</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="33">
-        <v>1</v>
-      </c>
-      <c r="O12" s="34">
-        <v>1</v>
-      </c>
-      <c r="P12" s="34">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="45">
-        <v>0</v>
-      </c>
-      <c r="C13" s="46">
-        <v>1</v>
-      </c>
-      <c r="D13" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="46">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="49">
-        <v>3</v>
-      </c>
-      <c r="I13" s="43">
-        <v>2</v>
-      </c>
-      <c r="J13" s="43">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K13" s="43">
-        <v>3</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="39">
-        <v>1</v>
-      </c>
-      <c r="O13" s="40">
-        <v>1</v>
-      </c>
-      <c r="P13" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="24.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="45">
-        <v>0</v>
-      </c>
-      <c r="C14" s="46">
-        <v>3</v>
-      </c>
-      <c r="D14" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="46">
+      <c r="E14" s="33">
         <v>1</v>
       </c>
       <c r="F14" s="6"/>
@@ -2291,20 +2301,20 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="33">
-        <v>1</v>
-      </c>
-      <c r="C15" s="34">
+      <c r="B15" s="20">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21">
         <v>3</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="21">
         <v>1</v>
       </c>
       <c r="F15" s="4"/>
@@ -2320,127 +2330,127 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:17" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="36">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30">
+        <v>3</v>
+      </c>
+      <c r="D16" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="47"/>
+    </row>
+    <row r="17" spans="1:17" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="32">
         <v>0</v>
       </c>
-      <c r="C16" s="46">
-        <v>3</v>
-      </c>
-      <c r="D16" s="46">
+      <c r="C17" s="33">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="46">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="21"/>
+      <c r="E17" s="33">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="50"/>
     </row>
-    <row r="17" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="45">
+    <row r="18" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="32">
         <v>0</v>
       </c>
-      <c r="C17" s="46">
-        <v>1</v>
-      </c>
-      <c r="D17" s="46">
+      <c r="C18" s="33">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="46">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="24"/>
-    </row>
-    <row r="18" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="45">
-        <v>0</v>
-      </c>
-      <c r="C18" s="46">
-        <v>1</v>
-      </c>
-      <c r="D18" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="46">
+      <c r="E18" s="33">
         <v>1</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="24"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
     </row>
     <row r="19" spans="1:17" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="26">
         <v>3</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="27">
         <v>3</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="27">
         <v>3</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="24"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="50"/>
     </row>
     <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -2449,17 +2459,17 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="27"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="53"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>

--- a/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
+++ b/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studisys\OneDrive\Documents\GitHub\Lorann-Java-Project----Exia-CESI-A1\Deliverables\Project_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53691BA-35CC-473C-A211-5BE1D17CAC0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0937A984-ED1A-4CBA-9770-77CF350C4EB1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{04DB42CA-C582-430A-B24B-2DA42F1F144B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Projet Java" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -285,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +394,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -751,14 +763,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -885,6 +899,26 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,23 +958,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1639,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84878C4D-6100-4F50-9094-AD16EEDA0C55}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,31 +1678,32 @@
     <col min="13" max="13" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43" t="str">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50" t="str">
         <f>VLOOKUP(CONCATENATE(B3,H3,N3),[1]Calcul!D2:E65,2)</f>
-        <v>C</v>
-      </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44"/>
+        <v>B</v>
+      </c>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="51"/>
+      <c r="S1" s="47"/>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1694,14 +1721,15 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
+      <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="str">
         <f>IF(SUM(D4:D19)&gt;SUM(C4:C19)*[1]Calcul!$B$2,"A",IF(SUM(D4:D19)&gt;=SUM(C4:C19)*[1]Calcul!$B$3,"B",IF(SUM(D4:D19)&gt;=SUM(C4:C19)*[1]Calcul!$B$4,"C","D")))</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>2</v>
@@ -1719,7 +1747,7 @@
       </c>
       <c r="H3" s="12" t="str">
         <f>IF(SUM(J4:J13)&gt;SUM(I4:I13)*[1]Calcul!$B$2,"A",IF(SUM(J4:J13)&gt;=SUM(I4:I13)*[1]Calcul!$B$3,"B",IF(SUM(J4:J13)&gt;=SUM(I4:I13)*[1]Calcul!$B$4,"C","D")))</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>2</v>
@@ -1749,8 +1777,9 @@
       <c r="Q3" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="S3" s="45"/>
     </row>
-    <row r="4" spans="1:17" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
@@ -1801,8 +1830,9 @@
       <c r="Q4" s="24">
         <v>1</v>
       </c>
+      <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:17" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
@@ -1837,24 +1867,25 @@
         <v>1</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="55">
-        <v>1</v>
-      </c>
-      <c r="O5" s="56">
-        <v>1</v>
-      </c>
-      <c r="P5" s="56">
+      <c r="N5" s="42">
+        <v>1</v>
+      </c>
+      <c r="O5" s="43">
+        <v>1</v>
+      </c>
+      <c r="P5" s="43">
         <f t="shared" ref="P5:P13" si="2">(N5/Q5)*O5</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="56">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="43">
+        <v>1</v>
+      </c>
+      <c r="S5" s="46"/>
     </row>
-    <row r="6" spans="1:17" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
@@ -1905,22 +1936,23 @@
       <c r="Q6" s="34">
         <v>1</v>
       </c>
+      <c r="S6" s="46"/>
     </row>
-    <row r="7" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="38">
         <v>0</v>
       </c>
-      <c r="C7" s="33">
-        <v>3</v>
-      </c>
-      <c r="D7" s="33">
+      <c r="C7" s="39">
+        <v>3</v>
+      </c>
+      <c r="D7" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="39">
         <v>1</v>
       </c>
       <c r="F7" s="6"/>
@@ -1957,8 +1989,9 @@
       <c r="Q7" s="34">
         <v>1</v>
       </c>
+      <c r="S7" s="46"/>
     </row>
-    <row r="8" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>18</v>
       </c>
@@ -1980,14 +2013,14 @@
         <v>19</v>
       </c>
       <c r="H8" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="39">
         <v>2</v>
       </c>
       <c r="J8" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="40">
         <v>2</v>
@@ -2009,8 +2042,9 @@
       <c r="Q8" s="34">
         <v>1</v>
       </c>
+      <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>21</v>
       </c>
@@ -2061,8 +2095,9 @@
       <c r="Q9" s="34">
         <v>1</v>
       </c>
+      <c r="S9" s="46"/>
     </row>
-    <row r="10" spans="1:17" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
@@ -2113,20 +2148,21 @@
       <c r="Q10" s="34">
         <v>1</v>
       </c>
+      <c r="S10" s="46"/>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="33">
         <v>3</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="33">
         <v>1</v>
@@ -2165,8 +2201,9 @@
       <c r="Q11" s="34">
         <v>1</v>
       </c>
+      <c r="S11" s="46"/>
     </row>
-    <row r="12" spans="1:17" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>30</v>
       </c>
@@ -2217,8 +2254,9 @@
       <c r="Q12" s="28">
         <v>1</v>
       </c>
+      <c r="S12" s="46"/>
     </row>
-    <row r="13" spans="1:17" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>33</v>
       </c>
@@ -2236,20 +2274,20 @@
         <v>1</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="36">
-        <v>3</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="H13" s="42">
+        <v>3</v>
+      </c>
+      <c r="I13" s="43">
         <v>2</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="43">
         <v>3</v>
       </c>
       <c r="L13" s="6"/>
@@ -2269,8 +2307,9 @@
       <c r="Q13" s="29">
         <v>1</v>
       </c>
+      <c r="S13" s="46"/>
     </row>
-    <row r="14" spans="1:17" ht="24.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="24.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>36</v>
       </c>
@@ -2299,8 +2338,9 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
+      <c r="S14" s="44"/>
     </row>
-    <row r="15" spans="1:17" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
@@ -2329,38 +2369,40 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
+      <c r="S15" s="44"/>
     </row>
-    <row r="16" spans="1:17" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:19" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="36">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30">
-        <v>3</v>
-      </c>
-      <c r="D16" s="30">
+      <c r="B16" s="42">
+        <v>1</v>
+      </c>
+      <c r="C16" s="43">
+        <v>3</v>
+      </c>
+      <c r="D16" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="43">
         <v>1</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="47"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
+      <c r="S16" s="44"/>
     </row>
     <row r="17" spans="1:17" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
@@ -2380,17 +2422,17 @@
         <v>1</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="50"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
@@ -2410,17 +2452,17 @@
         <v>1</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:17" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
@@ -2440,17 +2482,17 @@
         <v>3</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="50"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="57"/>
     </row>
     <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -2459,17 +2501,17 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="53"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>

--- a/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
+++ b/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studisys\OneDrive\Documents\GitHub\Lorann-Java-Project----Exia-CESI-A1\Deliverables\Project_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0937A984-ED1A-4CBA-9770-77CF350C4EB1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B00E7C-FF7A-49C1-A4AD-B3E7AD43D6AC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{04DB42CA-C582-430A-B24B-2DA42F1F144B}"/>
   </bookViews>
@@ -772,7 +772,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -957,6 +957,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1667,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84878C4D-6100-4F50-9094-AD16EEDA0C55}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,39 +2142,39 @@
         <v>2</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="32">
-        <v>1</v>
-      </c>
-      <c r="O10" s="33">
-        <v>1</v>
-      </c>
-      <c r="P10" s="33">
+      <c r="N10" s="20">
+        <v>1</v>
+      </c>
+      <c r="O10" s="21">
+        <v>1</v>
+      </c>
+      <c r="P10" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="28">
         <v>1</v>
       </c>
       <c r="S10" s="46"/>
     </row>
     <row r="11" spans="1:19" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="32">
-        <v>1</v>
-      </c>
-      <c r="C11" s="33">
-        <v>3</v>
-      </c>
-      <c r="D11" s="33">
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <v>3</v>
+      </c>
+      <c r="D11" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="21">
         <v>1</v>
       </c>
       <c r="F11" s="6"/>
@@ -2185,20 +2195,20 @@
         <v>1</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="32">
-        <v>1</v>
-      </c>
-      <c r="O11" s="33">
-        <v>1</v>
-      </c>
-      <c r="P11" s="33">
+      <c r="N11" s="20">
+        <v>1</v>
+      </c>
+      <c r="O11" s="21">
+        <v>1</v>
+      </c>
+      <c r="P11" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="28">
         <v>1</v>
       </c>
       <c r="S11" s="46"/>
@@ -2372,20 +2382,20 @@
       <c r="S15" s="44"/>
     </row>
     <row r="16" spans="1:19" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="42">
-        <v>1</v>
-      </c>
-      <c r="C16" s="43">
-        <v>3</v>
-      </c>
-      <c r="D16" s="43">
+      <c r="B16" s="62">
+        <v>1</v>
+      </c>
+      <c r="C16" s="63">
+        <v>3</v>
+      </c>
+      <c r="D16" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="63">
         <v>1</v>
       </c>
       <c r="F16" s="4"/>
@@ -2405,20 +2415,20 @@
       <c r="S16" s="44"/>
     </row>
     <row r="17" spans="1:17" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="38">
         <v>0</v>
       </c>
-      <c r="C17" s="33">
-        <v>1</v>
-      </c>
-      <c r="D17" s="33">
+      <c r="C17" s="39">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="39">
         <v>1</v>
       </c>
       <c r="F17" s="4"/>

--- a/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
+++ b/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studisys\OneDrive\Documents\GitHub\Lorann-Java-Project----Exia-CESI-A1\Deliverables\Project_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B00E7C-FF7A-49C1-A4AD-B3E7AD43D6AC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9734D364-75E7-420C-B3EC-12D575E66B90}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{04DB42CA-C582-430A-B24B-2DA42F1F144B}"/>
   </bookViews>
@@ -958,14 +958,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1677,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84878C4D-6100-4F50-9094-AD16EEDA0C55}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="77" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H3" s="12" t="str">
         <f>IF(SUM(J4:J13)&gt;SUM(I4:I13)*[1]Calcul!$B$2,"A",IF(SUM(J4:J13)&gt;=SUM(I4:I13)*[1]Calcul!$B$3,"B",IF(SUM(J4:J13)&gt;=SUM(I4:I13)*[1]Calcul!$B$4,"C","D")))</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>2</v>
@@ -1843,20 +1843,20 @@
       <c r="S4" s="46"/>
     </row>
     <row r="5" spans="1:19" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="32">
         <v>0</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="33">
         <v>2</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="33">
         <v>4</v>
       </c>
       <c r="F5" s="6"/>
@@ -1930,39 +1930,39 @@
         <v>1</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="32">
-        <v>1</v>
-      </c>
-      <c r="O6" s="33">
-        <v>1</v>
-      </c>
-      <c r="P6" s="33">
+      <c r="N6" s="20">
+        <v>1</v>
+      </c>
+      <c r="O6" s="21">
+        <v>1</v>
+      </c>
+      <c r="P6" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="28">
         <v>1</v>
       </c>
       <c r="S6" s="46"/>
     </row>
-    <row r="7" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:19" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="32">
         <v>0</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="33">
         <v>3</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="33">
         <v>1</v>
       </c>
       <c r="F7" s="6"/>
@@ -1983,39 +1983,39 @@
         <v>1</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="32">
-        <v>1</v>
-      </c>
-      <c r="O7" s="33">
-        <v>1</v>
-      </c>
-      <c r="P7" s="33">
+      <c r="N7" s="20">
+        <v>1</v>
+      </c>
+      <c r="O7" s="21">
+        <v>1</v>
+      </c>
+      <c r="P7" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="28">
         <v>1</v>
       </c>
       <c r="S7" s="46"/>
     </row>
-    <row r="8" spans="1:19" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:19" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="32">
-        <v>0</v>
-      </c>
-      <c r="C8" s="33">
+      <c r="B8" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="30">
         <v>3</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="30">
         <v>1</v>
       </c>
       <c r="F8" s="6"/>
@@ -2023,38 +2023,38 @@
         <v>19</v>
       </c>
       <c r="H8" s="38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="39">
         <v>2</v>
       </c>
       <c r="J8" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="40">
         <v>2</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="32">
-        <v>1</v>
-      </c>
-      <c r="O8" s="33">
-        <v>1</v>
-      </c>
-      <c r="P8" s="33">
+      <c r="N8" s="20">
+        <v>1</v>
+      </c>
+      <c r="O8" s="21">
+        <v>1</v>
+      </c>
+      <c r="P8" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="28">
         <v>1</v>
       </c>
       <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>21</v>
       </c>
@@ -2076,52 +2076,52 @@
         <v>22</v>
       </c>
       <c r="H9" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="39">
         <v>2</v>
       </c>
       <c r="J9" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="40">
         <v>2</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="32">
-        <v>1</v>
-      </c>
-      <c r="O9" s="33">
-        <v>1</v>
-      </c>
-      <c r="P9" s="33">
+      <c r="N9" s="20">
+        <v>1</v>
+      </c>
+      <c r="O9" s="21">
+        <v>1</v>
+      </c>
+      <c r="P9" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="28">
         <v>1</v>
       </c>
       <c r="S9" s="46"/>
     </row>
-    <row r="10" spans="1:19" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:19" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="32">
-        <v>0</v>
-      </c>
-      <c r="C10" s="33">
+      <c r="B10" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="30">
         <v>3</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="30">
         <v>1</v>
       </c>
       <c r="F10" s="6"/>
@@ -2129,14 +2129,14 @@
         <v>25</v>
       </c>
       <c r="H10" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="39">
         <v>2</v>
       </c>
       <c r="J10" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="40">
         <v>2</v>
@@ -2235,14 +2235,14 @@
         <v>31</v>
       </c>
       <c r="H12" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="39">
         <v>2</v>
       </c>
       <c r="J12" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="40">
         <v>2</v>
@@ -2319,21 +2319,21 @@
       </c>
       <c r="S13" s="46"/>
     </row>
-    <row r="14" spans="1:19" ht="24.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:19" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="32">
-        <v>0</v>
-      </c>
-      <c r="C14" s="33">
+      <c r="B14" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="30">
         <v>3</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="30">
         <v>1</v>
       </c>
       <c r="F14" s="6"/>
@@ -2350,7 +2350,7 @@
       <c r="Q14" s="8"/>
       <c r="S14" s="44"/>
     </row>
-    <row r="15" spans="1:19" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
@@ -2386,14 +2386,14 @@
         <v>38</v>
       </c>
       <c r="B16" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="63">
         <v>3</v>
       </c>
       <c r="D16" s="63">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="63">
         <v>1</v>
@@ -2415,20 +2415,20 @@
       <c r="S16" s="44"/>
     </row>
     <row r="17" spans="1:17" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="38">
-        <v>0</v>
-      </c>
-      <c r="C17" s="39">
-        <v>1</v>
-      </c>
-      <c r="D17" s="39">
+      <c r="B17" s="20">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="39">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21">
         <v>1</v>
       </c>
       <c r="F17" s="4"/>

--- a/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
+++ b/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studisys\OneDrive\Documents\GitHub\Lorann-Java-Project----Exia-CESI-A1\Deliverables\Project_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9734D364-75E7-420C-B3EC-12D575E66B90}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB52233-D5A8-4634-9893-D6B8B33E925D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{04DB42CA-C582-430A-B24B-2DA42F1F144B}"/>
   </bookViews>
@@ -919,6 +919,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,16 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1677,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84878C4D-6100-4F50-9094-AD16EEDA0C55}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="77" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,28 +1689,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="str">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="53" t="str">
         <f>VLOOKUP(CONCATENATE(B3,H3,N3),[1]Calcul!D2:E65,2)</f>
         <v>B</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="51"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="54"/>
       <c r="S1" s="47"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2231,20 +2231,20 @@
         <v>1</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="36">
         <v>2</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="30">
         <v>2</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="30">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="30">
         <v>2</v>
       </c>
       <c r="L12" s="6"/>
@@ -2382,36 +2382,36 @@
       <c r="S15" s="44"/>
     </row>
     <row r="16" spans="1:19" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="49">
         <v>0</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="50">
         <v>3</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="50">
         <v>1</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="54"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="57"/>
       <c r="S16" s="44"/>
     </row>
     <row r="17" spans="1:17" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -2432,17 +2432,17 @@
         <v>1</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="60"/>
     </row>
     <row r="18" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
@@ -2462,17 +2462,17 @@
         <v>1</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:17" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
@@ -2492,17 +2492,17 @@
         <v>3</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -2511,17 +2511,17 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="63"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>

--- a/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
+++ b/Deliverables/Project_Management/ProjectAutoAssessement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studisys\OneDrive\Documents\GitHub\Lorann-Java-Project----Exia-CESI-A1\Deliverables\Project_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB52233-D5A8-4634-9893-D6B8B33E925D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B213EE61-D2ED-4000-A6FA-A29F51C200A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{04DB42CA-C582-430A-B24B-2DA42F1F144B}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Projet Java</t>
   </si>
@@ -280,12 +280,123 @@
   <si>
     <t>La présentation a été entièrement faîte en anglais</t>
   </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Number of levels available and working</t>
+  </si>
+  <si>
+    <t>5 (Max)</t>
+  </si>
+  <si>
+    <t>All five levels are stored in the DB and are successfully loaded.</t>
+  </si>
+  <si>
+    <t>Number of demons with different behaviors available and working</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>The Artificial Intelligence is present in the code as comment (in model / myModel : MOVABLEITEM_Ennemy class) because repaint is not properly working. But if it was working, then the AI would work as expected and the monsters would chase Lorann</t>
+  </si>
+  <si>
+    <t>The gate only opens when Lorann grabs the crystal ball</t>
+  </si>
+  <si>
+    <t>1 (Max)</t>
+  </si>
+  <si>
+    <t>It works as expected in the game</t>
+  </si>
+  <si>
+    <t>Demons are chasing Lorann</t>
+  </si>
+  <si>
+    <t>See for Numbers of demons with different behaviors…</t>
+  </si>
+  <si>
+    <t>Lorann fires one and only one multicolor ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ball is instantiated, but only in front of Lorann (his last direction). The ball does not follow Lorann, does not move stays at the same place, but kills if a monster is on the same “square”. </t>
+  </si>
+  <si>
+    <t>Lorann can guide the multicolor ball once it has been fired</t>
+  </si>
+  <si>
+    <t>Not implemented.</t>
+  </si>
+  <si>
+    <t>Lorann is not killed by the multicolor ball</t>
+  </si>
+  <si>
+    <t>Lorann can go on the same square as the spell and does not die.</t>
+  </si>
+  <si>
+    <t>Lorann is killed by demons when there is a contact</t>
+  </si>
+  <si>
+    <t>Lorann is killed by the demons if it is on the same square as the demon. Even though the demon is not moving, the check is based on if Lorann is on the same square of the demon, so it should do the same if the demons were moving. Also, if a demon got in a square and Lorann goes on it just right after, then Lorann is killed because he went on the same square as the demon, at the “right” moment.</t>
+  </si>
+  <si>
+    <t>Lorann is able to move in any direction, including diagonals</t>
+  </si>
+  <si>
+    <t>3 (Max)</t>
+  </si>
+  <si>
+    <t>Working as in the demo</t>
+  </si>
+  <si>
+    <t>Lorann can grab the purses or the crystal ball</t>
+  </si>
+  <si>
+    <t>The multicolor ball can not go through blocking elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The multicolor ball can not be instantiated on any wall as shown in the demo (otherwise, the square where the wall is located would go black, which wasn’t the case). </t>
+  </si>
+  <si>
+    <t>Lorann can not go through blocking elements</t>
+  </si>
+  <si>
+    <t>Working as in the demo. Note : Lorann also dies when he hits the closed door.</t>
+  </si>
+  <si>
+    <t>Monsters can not go through blocking elements</t>
+  </si>
+  <si>
+    <t>As shown in the JUnit test (CollisionTest), a blocking element does not return the ID “3” which says the square is empty, as an enemy can only go on empty squares or on Lorann (and kill him). Check the getColliderMonster method in MOVABLEITEM_Ennemy and the myIA method just under it to see the implementation.</t>
+  </si>
+  <si>
+    <t>Lorann is animated when he doesn’t move</t>
+  </si>
+  <si>
+    <t>The multicolor ball has its color changed when it moves</t>
+  </si>
+  <si>
+    <t>The multicolor ball animation is not repainted (repaint problem) and does not work because of it. If repaint was fixed, then it would be animated.</t>
+  </si>
+  <si>
+    <t>The presentation was only done in english</t>
+  </si>
+  <si>
+    <t>Only in English as heard/viewed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,8 +517,53 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,8 +602,38 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF262626"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF538135"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -762,6 +948,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -772,7 +1006,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -919,16 +1153,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,6 +1191,81 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1675,42 +1974,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84878C4D-6100-4F50-9094-AD16EEDA0C55}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="3" max="3" width="55.21875" customWidth="1"/>
     <col min="7" max="7" width="40.109375" customWidth="1"/>
     <col min="13" max="13" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="53" t="str">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50" t="str">
         <f>VLOOKUP(CONCATENATE(B3,H3,N3),[1]Calcul!D2:E65,2)</f>
         <v>B</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="51"/>
       <c r="S1" s="47"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1970,14 +2270,14 @@
         <v>16</v>
       </c>
       <c r="H7" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="33">
         <v>2</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="34">
         <v>1</v>
@@ -2165,14 +2465,14 @@
         <v>27</v>
       </c>
       <c r="B11" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="21">
         <v>3</v>
       </c>
       <c r="D11" s="21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E11" s="21">
         <v>1</v>
@@ -2382,36 +2682,36 @@
       <c r="S15" s="44"/>
     </row>
     <row r="16" spans="1:19" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="49">
-        <v>0</v>
-      </c>
-      <c r="C16" s="50">
+      <c r="B16" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="30">
         <v>3</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="30">
         <v>1</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
       <c r="S16" s="44"/>
     </row>
     <row r="17" spans="1:17" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -2432,17 +2732,17 @@
         <v>1</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
@@ -2462,17 +2762,17 @@
         <v>1</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="60"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:17" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
@@ -2492,17 +2792,17 @@
         <v>3</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="60"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="57"/>
     </row>
     <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -2511,17 +2811,17 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="63"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -2542,13 +2842,208 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
     </row>
+    <row r="86" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="375" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="73">
+        <v>0</v>
+      </c>
+      <c r="C92" s="74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="317.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="244.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" s="77"/>
+      <c r="C101" s="84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="83"/>
+      <c r="B102" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="85"/>
+    </row>
+    <row r="103" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="81" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="G16:Q20"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C101:C102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>